--- a/biology/Zoologie/Cybaeidae/Cybaeidae.xlsx
+++ b/biology/Zoologie/Cybaeidae/Cybaeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cybaeidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cybaeidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe, en Afrique du Nord, en Asie et en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Europe, en Afrique du Nord, en Asie et en Amérique.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 29/11/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 29/11/2023) :
 Allocybaeina Bennett, 2020
 Blabomma Chamberlin &amp; Ivie, 1937
 Calymmaria Chamberlin &amp; Ivie, 1937
@@ -625,7 +645,7 @@
 Vagellia Simon, 1899
 Willisus Roth, 1981
 Yorima Chamberlin &amp; Ivie, 1942
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Vectaraneus Selden, 2001</t>
         </is>
       </c>
@@ -654,11 +674,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite par Banks en 1892 comme une tribu des Agelenidae puis élevée au rang de sous-famille. Elle est considérée comme une sous-famille des Dictynidae par Lehtinen en 1967[3] puis élevée au rang de famille par Forster en 1970[4].
-La composition de cette famille a été modifiée par Wheeler et al. en 2017 : les Cryphoecinae ont été inclus et les Argyronetinae exclus[5].
-Cette famille rassemble 301 espèces dans 23 genres actuels[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite par Banks en 1892 comme une tribu des Agelenidae puis élevée au rang de sous-famille. Elle est considérée comme une sous-famille des Dictynidae par Lehtinen en 1967 puis élevée au rang de famille par Forster en 1970.
+La composition de cette famille a été modifiée par Wheeler et al. en 2017 : les Cryphoecinae ont été inclus et les Argyronetinae exclus.
+Cette famille rassemble 301 espèces dans 23 genres actuels.
 </t>
         </is>
       </c>
@@ -687,7 +709,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Banks, 1892 : « A classification of North American spiders. » Canadian Entomologist, vol. 24, p. 88-97.</t>
         </is>
